--- a/data/2015-gl-lis-pow.xlsx
+++ b/data/2015-gl-lis-pow.xlsx
@@ -2350,9 +2350,6 @@
     <t>13 - Komitet Wyborczy Samoobrona</t>
   </si>
   <si>
-    <t>14 - Komitet Wyborczy Wyborców Grzegorza Brauna „Szczęść Boże!”</t>
-  </si>
-  <si>
     <t>15 - Komitet Wyborczy Kongres Nowej Prawicy</t>
   </si>
   <si>
@@ -2411,6 +2408,9 @@
   </si>
   <si>
     <t>l_wyborcow</t>
+  </si>
+  <si>
+    <t>votes_2015_braun</t>
   </si>
 </sst>
 </file>
@@ -3313,8 +3313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV384"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AL1" sqref="AL1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3348,7 +3348,7 @@
   <sheetData>
     <row r="1" spans="1:48" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>15</v>
@@ -3357,10 +3357,10 @@
         <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>0</v>
@@ -3369,13 +3369,13 @@
         <v>1</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>3</v>
@@ -3421,34 +3421,34 @@
         <v>17</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="AA1" s="11" t="s">
+        <v>785</v>
+      </c>
+      <c r="AB1" s="11" t="s">
         <v>786</v>
       </c>
-      <c r="AB1" s="11" t="s">
+      <c r="AC1" s="11" t="s">
         <v>787</v>
       </c>
-      <c r="AC1" s="11" t="s">
+      <c r="AD1" s="11" t="s">
         <v>788</v>
       </c>
-      <c r="AD1" s="11" t="s">
+      <c r="AE1" s="11" t="s">
         <v>789</v>
       </c>
-      <c r="AE1" s="11" t="s">
+      <c r="AF1" s="11" t="s">
         <v>790</v>
       </c>
-      <c r="AF1" s="11" t="s">
+      <c r="AG1" s="11" t="s">
         <v>791</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AH1" s="11" t="s">
         <v>792</v>
       </c>
-      <c r="AH1" s="11" t="s">
-        <v>793</v>
-      </c>
       <c r="AI1" s="5" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="AJ1" s="5" t="s">
         <v>773</v>
@@ -3462,17 +3462,17 @@
       <c r="AM1" s="5" t="s">
         <v>776</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AN1" s="11" t="s">
+        <v>797</v>
+      </c>
+      <c r="AO1" s="5" t="s">
         <v>777</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
         <v>778</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>779</v>
-      </c>
-      <c r="AQ1" s="5" t="s">
-        <v>780</v>
       </c>
       <c r="AR1" s="6"/>
       <c r="AS1" s="6"/>
@@ -34324,7 +34324,7 @@
         <v>273</v>
       </c>
       <c r="C256" s="7" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D256" s="9">
         <v>2</v>
@@ -34444,7 +34444,7 @@
         <v>274</v>
       </c>
       <c r="C257" s="7" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D257" s="9">
         <v>3</v>
